--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_2_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_2_square_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.39000000000053</v>
+        <v>25.42000000000053</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.394011912938343e-16</v>
+        <v>2.60462879677456e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>46.81697551152276</v>
+        <v>49.58522613562492</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[36.644414178937, 56.989536844108514]</t>
+          <t>[39.801146420368454, 59.36930585088139]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>2.132131951084966</v>
+        <v>1.855395060678656</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.9182898084982734, 2.345974093671658]</t>
+          <t>[1.6541318676558863, 2.0566582537014266]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>59.88983992319658</v>
+        <v>65.06851204650476</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[54.53595022033138, 65.24372962606176]</t>
+          <t>[59.36213365737909, 70.77489043563044]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>16.77417417417452</v>
+        <v>17.91359359359397</v>
       </c>
       <c r="X2" t="n">
-        <v>15.91005005005038</v>
+        <v>17.0993393393397</v>
       </c>
       <c r="Y2" t="n">
-        <v>17.63829829829866</v>
+        <v>18.72784784784825</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.79000000000012</v>
+        <v>22.75000000000012</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,16 +661,18 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.394011912938343e-16</v>
-      </c>
-      <c r="I3" t="inlineStr"/>
+        <v>2.60462879677456e-16</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0.8516032244759859</v>
+      </c>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>46.64622153143215</v>
+        <v>40.03159500278127</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[36.22711826809269, 57.065324794771605]</t>
+          <t>[31.418626117859375, 48.64456388770316]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -680,11 +682,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.779947853627004</v>
+        <v>-2.96863209708585</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.018947895341542, -2.5409478119124653]</t>
+          <t>[-3.2076321388003888, -2.729632055371312]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -694,11 +696,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.92230218765923</v>
+        <v>61.22597464434896</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[57.288169437991186, 68.55643493732727]</t>
+          <t>[55.89115961361295, 66.56078967508498]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +710,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.08326326326332</v>
+        <v>10.7487487487488</v>
       </c>
       <c r="X3" t="n">
-        <v>9.216376376376425</v>
+        <v>9.883383383383435</v>
       </c>
       <c r="Y3" t="n">
-        <v>10.95015015015021</v>
+        <v>11.61411411411417</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_2_square_0.5_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/square_0.5/cosinor_2_square_0.5_.xlsx
@@ -571,7 +571,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.42000000000053</v>
+        <v>25.09000000000048</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
@@ -580,16 +580,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H2" t="n">
-        <v>2.60462879677456e-16</v>
+        <v>2.254259948477475e-16</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>49.58522613562492</v>
+        <v>45.08843913529638</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[39.801146420368454, 59.36930585088139]</t>
+          <t>[35.50451588833197, 54.67236238226079]</t>
         </is>
       </c>
       <c r="M2" t="n">
@@ -599,11 +599,11 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>1.855395060678656</v>
+        <v>1.779921363295118</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[1.6541318676558863, 2.0566582537014266]</t>
+          <t>[1.553500271144503, 2.0063424554457336]</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -613,11 +613,11 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>65.06851204650476</v>
+        <v>61.98751829747471</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[59.36213365737909, 70.77489043563044]</t>
+          <t>[56.32776944460784, 67.64726715034158]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>17.91359359359397</v>
+        <v>17.98242242242277</v>
       </c>
       <c r="X2" t="n">
-        <v>17.0993393393397</v>
+        <v>17.07827827827861</v>
       </c>
       <c r="Y2" t="n">
-        <v>18.72784784784825</v>
+        <v>18.88656656656693</v>
       </c>
     </row>
     <row r="3">
@@ -652,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.75000000000012</v>
+        <v>22.95000000000015</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
@@ -661,18 +661,16 @@
         <v>1.110223024625157e-16</v>
       </c>
       <c r="H3" t="n">
-        <v>2.60462879677456e-16</v>
-      </c>
-      <c r="I3" t="n">
-        <v>0.8516032244759859</v>
-      </c>
+        <v>2.254259948477475e-16</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>40.03159500278127</v>
+        <v>48.55292628650465</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[31.418626117859375, 48.64456388770316]</t>
+          <t>[37.70795673249031, 59.39789584051899]</t>
         </is>
       </c>
       <c r="M3" t="n">
@@ -682,11 +680,11 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>-2.96863209708585</v>
+        <v>-2.251631971942234</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[-3.2076321388003888, -2.729632055371312]</t>
+          <t>[-2.4780530640928493, -2.0252108797916186]</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -696,11 +694,11 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>61.22597464434896</v>
+        <v>65.44830802208074</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[55.89115961361295, 66.56078967508498]</t>
+          <t>[59.81342344130323, 71.08319260285825]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>10.7487487487488</v>
+        <v>8.224324324324376</v>
       </c>
       <c r="X3" t="n">
-        <v>9.883383383383435</v>
+        <v>7.397297297297346</v>
       </c>
       <c r="Y3" t="n">
-        <v>11.61411411411417</v>
+        <v>9.051351351351407</v>
       </c>
     </row>
   </sheetData>
